--- a/classfiers/bloated/multinomialNB/smote/bloated-multinomialNB-smote-results.xlsx
+++ b/classfiers/bloated/multinomialNB/smote/bloated-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4560810810810811</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4409090909090909</v>
+        <v>0.4253731343283582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4237158190646563</v>
+        <v>0.4109049386240365</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4409090909090909</v>
+        <v>0.4253731343283582</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7729083665338645</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8113636363636364</v>
+        <v>0.8331094527363184</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8104226039379356</v>
+        <v>0.8319772859456789</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8113636363636364</v>
+        <v>0.8331094527363184</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7177914110429447</v>
+        <v>0.7044025157232704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6613636363636364</v>
+        <v>0.6630845771144278</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6555836323423571</v>
+        <v>0.6596075127171664</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6613636363636364</v>
+        <v>0.6630845771144279</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6604815276048153</v>
+        <v>0.6435572139303483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6597377195857197</v>
+        <v>0.6418860265417643</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6604815276048153</v>
+        <v>0.6435572139303483</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9785714285714285</v>
+        <v>0.9385964912280702</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8045143212951431</v>
+        <v>0.7486691542288557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7975439725439725</v>
+        <v>0.7359864411199113</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8045143212951431</v>
+        <v>0.7486691542288558</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7204239927993992</v>
+        <v>0.7081452559357226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6757264425072644</v>
+        <v>0.6627587064676618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6694007494949282</v>
+        <v>0.6560724409897115</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6757264425072644</v>
+        <v>0.6627587064676618</v>
       </c>
     </row>
   </sheetData>
